--- a/design/ScreenLayout.xlsx
+++ b/design/ScreenLayout.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaito\Desktop\website\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13B1B24-57E7-4376-A7A7-D1A7542B7D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC095449-D1E4-48BF-A5FF-43BE58FD89E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="45" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提条件" sheetId="1" r:id="rId1"/>
-    <sheet name="仕様チェックシート" sheetId="16" r:id="rId2"/>
-    <sheet name="ログアウト画面" sheetId="17" r:id="rId3"/>
-    <sheet name="報告完了画面" sheetId="14" r:id="rId4"/>
-    <sheet name="報告フォーム" sheetId="11" r:id="rId5"/>
-    <sheet name="質問ページ(回答受付中)" sheetId="12" r:id="rId6"/>
-    <sheet name="質問ページ(解決済み)" sheetId="4" r:id="rId7"/>
-    <sheet name="投稿完了画面" sheetId="15" r:id="rId8"/>
-    <sheet name="質問投稿フォーム" sheetId="6" r:id="rId9"/>
-    <sheet name="ユーザ情報変更完了画面" sheetId="13" r:id="rId10"/>
-    <sheet name="ユーザ情報変更画面" sheetId="8" r:id="rId11"/>
-    <sheet name="マイページ" sheetId="3" r:id="rId12"/>
-    <sheet name="ユーザ登録画面" sheetId="7" r:id="rId13"/>
-    <sheet name="ログイン画面" sheetId="5" r:id="rId14"/>
-    <sheet name="トップページ" sheetId="2" r:id="rId15"/>
+    <sheet name="Controller一覧" sheetId="18" r:id="rId2"/>
+    <sheet name="仕様チェックシート" sheetId="16" r:id="rId3"/>
+    <sheet name="ログアウト画面" sheetId="17" r:id="rId4"/>
+    <sheet name="報告完了画面" sheetId="14" r:id="rId5"/>
+    <sheet name="報告フォーム" sheetId="11" r:id="rId6"/>
+    <sheet name="質問ページ(回答受付中)" sheetId="12" r:id="rId7"/>
+    <sheet name="質問ページ(解決済み)" sheetId="4" r:id="rId8"/>
+    <sheet name="投稿完了画面" sheetId="15" r:id="rId9"/>
+    <sheet name="質問投稿フォーム" sheetId="6" r:id="rId10"/>
+    <sheet name="ユーザ情報変更完了画面" sheetId="13" r:id="rId11"/>
+    <sheet name="ユーザ情報変更画面" sheetId="8" r:id="rId12"/>
+    <sheet name="マイページ" sheetId="3" r:id="rId13"/>
+    <sheet name="ユーザ登録画面" sheetId="7" r:id="rId14"/>
+    <sheet name="ログイン画面" sheetId="5" r:id="rId15"/>
+    <sheet name="トップページ" sheetId="2" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>対応ブラウザ：safari</t>
     <rPh sb="0" eb="2">
@@ -670,6 +671,30 @@
   </si>
   <si>
     <t>　</t>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Logout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Signup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDetail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Search</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6884,6 +6909,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D42894-0504-41B3-8BBD-4BA0D152FA90}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A56C44C-CE4C-4130-B99D-FA064FD19FB7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6899,7 +6940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE744664-F768-40AB-BD81-23A541FE7024}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6915,7 +6956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7AADB4-B1D2-4F18-BF3C-32A439B2079D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6931,7 +6972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D879FA-45C4-4BD7-9C54-AEDFB968B3BA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6947,7 +6988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0E5618-E772-49CB-A27D-D2DC55AFF913}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6963,7 +7004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA0B212-8586-438F-A2D6-E82104A89F34}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6980,10 +7021,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAE6D2E-098B-4431-A094-1F1AD784421C}">
+  <dimension ref="A2:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816F24CA-6410-4D70-98D3-BEB92C95B0EE}">
   <dimension ref="B3:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -7274,7 +7361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF86EB90-C96F-43DC-A125-E125AB9DF5CA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7290,7 +7377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E22844-F27C-4725-9927-A5D393C9DF15}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7306,7 +7393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D31B2C-627C-4004-A55D-0A6DD2437781}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7322,11 +7409,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE11E11-CAF8-4831-AEDD-4D7712E6F0AA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
@@ -7338,7 +7425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B7D96A-BF12-43BC-8D78-6B371874AA29}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7354,7 +7441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83E2905-34A6-4DA6-B1C7-02CE5606A683}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7368,20 +7455,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D42894-0504-41B3-8BBD-4BA0D152FA90}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/design/ScreenLayout.xlsx
+++ b/design/ScreenLayout.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaito\Desktop\website\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC095449-D1E4-48BF-A5FF-43BE58FD89E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2D72C9-E83A-4A19-80CA-F0528BA3AA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="45" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="前提条件" sheetId="1" r:id="rId1"/>
+    <sheet name="memo" sheetId="1" r:id="rId1"/>
     <sheet name="Controller一覧" sheetId="18" r:id="rId2"/>
     <sheet name="仕様チェックシート" sheetId="16" r:id="rId3"/>
     <sheet name="ログアウト画面" sheetId="17" r:id="rId4"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>対応ブラウザ：safari</t>
     <rPh sb="0" eb="2">
@@ -695,6 +695,13 @@
   <si>
     <t>Search</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザインテンプレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://japanism.info/free-template140-149.html</t>
   </si>
 </sst>
 </file>
@@ -812,6 +819,2445 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>77455</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>181698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A2F96C-7EBD-2F30-A24A-08F2BFC8917B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1905000"/>
+          <a:ext cx="8992855" cy="5182323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401446</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B7BE34-6B7E-F0F3-C314-D7250DE48E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47625"/>
+          <a:ext cx="10002646" cy="3886742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>202450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837145EC-11A4-44E6-9B31-53B5BB3D17B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="1323975"/>
+          <a:ext cx="6657975" cy="4355350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E8F199-832B-424C-9806-1A0992F26160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="1971675"/>
+          <a:ext cx="1943100" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新しいユーザ名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42CE4FCB-8758-4ECF-AEF2-C1296F2387E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="4686300"/>
+          <a:ext cx="1733550" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>変更（緑ボタン）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78746FB-ECE4-4925-B95A-1D3E365925DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="2790825"/>
+          <a:ext cx="1943100" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新しいパスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401446</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CED18F4-35D6-6868-B3C4-E01BD2E1E89E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="209550"/>
+          <a:ext cx="10002646" cy="3886742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>401062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E914EA1D-49B8-A58F-D723-14FF94AD25EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1628775"/>
+          <a:ext cx="7249537" cy="771633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2573C294-1FEF-1605-1BA7-0E810BAAA3C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="1085850"/>
+          <a:ext cx="2343150" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>〇〇さんのマイページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A1A063-A32C-B62C-3262-DBFEFA10506D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="1876425"/>
+          <a:ext cx="1819275" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>回答受付中の質問</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1D19C2-A664-60FD-23BF-FDBEB40DD7BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="1866900"/>
+          <a:ext cx="2028825" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>解決済みの質問</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BADB569D-1E8D-4B4F-8AED-23DFECB00299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943475" y="1857375"/>
+          <a:ext cx="2028825" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お気に入りした質問</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>258156</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B87223A-1DB2-4D4E-80D8-4A283E79B731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="2924175"/>
+          <a:ext cx="7030431" cy="4324954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143266</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0012C40A-82C6-4DC9-B037-2D46D11AD585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="2486025"/>
+          <a:ext cx="2800741" cy="342948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143266</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B760900F-A676-455A-8E77-86DA942F53A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="7343775"/>
+          <a:ext cx="2800741" cy="342948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>658657</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD877D51-D1C4-467B-BB75-E7479970FC77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7762875"/>
+          <a:ext cx="10259857" cy="1486107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83B6B46-D550-411E-AC56-E952D121E335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7762875"/>
+          <a:ext cx="5057775" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>公式のホームページはこちら</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>URL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE70E003-F9AE-4832-836E-59B7C3A00935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="133350"/>
+          <a:ext cx="1285875" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイページ太字</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD296F6D-6A42-482E-B86F-820B95C74B16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553326" y="1228725"/>
+          <a:ext cx="1924050" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ名・パスワード変更</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438377</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF01D88C-5A42-4880-B93F-FDC408377578}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7724775" y="1609725"/>
+          <a:ext cx="1629002" cy="781159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>353821</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>162467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEDE4F99-D03F-92C4-9020-61292CFCEE0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="85725"/>
+          <a:ext cx="10002646" cy="3886742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>154825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28712F5A-8999-8E5F-90DC-F208ECCD27EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="1276350"/>
+          <a:ext cx="6657975" cy="4355350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A752657-CADD-E1AE-830A-DC11D21C3DF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="4676775"/>
+          <a:ext cx="1628775" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ登録＆ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75258478-83E4-4A00-868E-D80DE2E5D81E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="1895474"/>
+          <a:ext cx="1943100" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B69B386-F9D0-4D83-B03A-C0DC7419D94A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="619125"/>
+          <a:ext cx="1276350" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ登録太字</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>401446</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D7B33D-DA90-A708-351D-7931BDA8A44C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10002646" cy="3886742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>112341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BB0C59-EE87-A066-0394-530287BC6F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="914400"/>
+          <a:ext cx="5229225" cy="4912941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FA6355-D718-C7B6-F85C-0A4B3A2F3C89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="6038850"/>
+          <a:ext cx="4476750" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>登録がまだの方はこちら（リンク）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5F1935-70AB-463A-981C-4B3FD794BFC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="514350"/>
+          <a:ext cx="1095375" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン太字</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>430021</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5A18CD-D666-FCA0-EAE7-5F02E86CB148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="171450"/>
+          <a:ext cx="10002646" cy="3886742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76683</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC6C63B-767D-3020-CE32-5D8808289657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="638175"/>
+          <a:ext cx="3458058" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200252</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C909BA6E-C932-1EC2-1BAE-C1D1FCC9C910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="942975"/>
+          <a:ext cx="1629002" cy="781159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95641</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00F5E1D-C879-1BD9-1FBE-4F108DAA2D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="2152650"/>
+          <a:ext cx="2800741" cy="342948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>191481</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>143479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DAA95D-D55C-A475-1CCA-B5A1754FD9BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="2486025"/>
+          <a:ext cx="7030431" cy="4324954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>86116</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78A84D4-FCE4-4C0C-9CB2-5FEB95F53E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="6819900"/>
+          <a:ext cx="2800741" cy="342948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>658657</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F785955-5868-49B6-49F2-5F7C53D2F379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7162800"/>
+          <a:ext cx="10259857" cy="1486107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0103887D-7053-B00C-84E8-96E3DF98B63A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="7162800"/>
+          <a:ext cx="5057775" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>公式のホームページはこちら</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>URL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25479542-37EF-45B5-CA84-8BFCDEEC31CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="171450"/>
+          <a:ext cx="1095375" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ホーム太字</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688F371F-3CC3-3BAB-61EA-33BE2192DFA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38101" y="1619251"/>
+          <a:ext cx="2228850" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>〇解決済みのみ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>〇期間：（選択）～（選択）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104885</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A203C7-D2C7-FA5E-B040-96F4FB5A4CB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1162050"/>
+          <a:ext cx="790685" cy="543001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87A88BE-FDA4-4F12-B98F-4B02DEDB0742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924176" y="2124076"/>
+          <a:ext cx="2228850" cy="371474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以降のときは前へも表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BA3D1E-05A5-4DB9-91C9-8650E663A07E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7153275" y="2247900"/>
+          <a:ext cx="6858000" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>該当する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Q&amp;A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>はありませんでした。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -959,2094 +3405,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>401446</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>48167</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CED18F4-35D6-6868-B3C4-E01BD2E1E89E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="209550"/>
-          <a:ext cx="10002646" cy="3886742"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>401062</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19158</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E914EA1D-49B8-A58F-D723-14FF94AD25EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="1628775"/>
-          <a:ext cx="7249537" cy="771633"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2573C294-1FEF-1605-1BA7-0E810BAAA3C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="85725" y="1085850"/>
-          <a:ext cx="2343150" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>〇〇さんのマイページ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A1A063-A32C-B62C-3262-DBFEFA10506D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1876425"/>
-          <a:ext cx="1819275" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>回答受付中の質問</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1D19C2-A664-60FD-23BF-FDBEB40DD7BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2600325" y="1866900"/>
-          <a:ext cx="2028825" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>解決済みの質問</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BADB569D-1E8D-4B4F-8AED-23DFECB00299}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4943475" y="1857375"/>
-          <a:ext cx="2028825" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>お気に入りした質問</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>258156</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>105379</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B87223A-1DB2-4D4E-80D8-4A283E79B731}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="85725" y="2924175"/>
-          <a:ext cx="7030431" cy="4324954"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>143266</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209598</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0012C40A-82C6-4DC9-B037-2D46D11AD585}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="85725" y="2486025"/>
-          <a:ext cx="2800741" cy="342948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>143266</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66723</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B760900F-A676-455A-8E77-86DA942F53A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="85725" y="7343775"/>
-          <a:ext cx="2800741" cy="342948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>658657</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>200232</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD877D51-D1C4-467B-BB75-E7479970FC77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7762875"/>
-          <a:ext cx="10259857" cy="1486107"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83B6B46-D550-411E-AC56-E952D121E335}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7762875"/>
-          <a:ext cx="5057775" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>公式のホームページはこちら</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>URL</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE70E003-F9AE-4832-836E-59B7C3A00935}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2838450" y="133350"/>
-          <a:ext cx="1285875" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>マイページ太字</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD296F6D-6A42-482E-B86F-820B95C74B16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7553326" y="1228725"/>
-          <a:ext cx="1924050" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ名・パスワード変更</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>438377</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9634</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF01D88C-5A42-4880-B93F-FDC408377578}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7724775" y="1609725"/>
-          <a:ext cx="1629002" cy="781159"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>353821</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>162467</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEDE4F99-D03F-92C4-9020-61292CFCEE0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="638175" y="85725"/>
-          <a:ext cx="10002646" cy="3886742"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>154825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28712F5A-8999-8E5F-90DC-F208ECCD27EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="666750" y="1276350"/>
-          <a:ext cx="6657975" cy="4355350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A752657-CADD-E1AE-830A-DC11D21C3DF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1095375" y="4676775"/>
-          <a:ext cx="1628775" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ登録＆ログイン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75258478-83E4-4A00-868E-D80DE2E5D81E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1076325" y="1895474"/>
-          <a:ext cx="1943100" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ名</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B69B386-F9D0-4D83-B03A-C0DC7419D94A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5467350" y="619125"/>
-          <a:ext cx="1276350" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ登録太字</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>401446</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76742</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D7B33D-DA90-A708-351D-7931BDA8A44C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10002646" cy="3886742"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>112341</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BB0C59-EE87-A066-0394-530287BC6F7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1000125" y="914400"/>
-          <a:ext cx="5229225" cy="4912941"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FA6355-D718-C7B6-F85C-0A4B3A2F3C89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1304925" y="6038850"/>
-          <a:ext cx="4476750" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>登録がまだの方はこちら（リンク）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5F1935-70AB-463A-981C-4B3FD794BFC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3933825" y="514350"/>
-          <a:ext cx="1095375" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン太字</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>430021</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>10067</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5A18CD-D666-FCA0-EAE7-5F02E86CB148}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28575" y="171450"/>
-          <a:ext cx="10002646" cy="3886742"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76683</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47709</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC6C63B-767D-3020-CE32-5D8808289657}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="47625" y="638175"/>
-          <a:ext cx="3458058" cy="600159"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200252</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57259</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C909BA6E-C932-1EC2-1BAE-C1D1FCC9C910}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4057650" y="942975"/>
-          <a:ext cx="1629002" cy="781159"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95641</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114348</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00F5E1D-C879-1BD9-1FBE-4F108DAA2D03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38100" y="2152650"/>
-          <a:ext cx="2800741" cy="342948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>191481</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>143479</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DAA95D-D55C-A475-1CCA-B5A1754FD9BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19050" y="2486025"/>
-          <a:ext cx="7030431" cy="4324954"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>86116</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19098</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78A84D4-FCE4-4C0C-9CB2-5FEB95F53E09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28575" y="6819900"/>
-          <a:ext cx="2800741" cy="342948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>658657</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76407</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F785955-5868-49B6-49F2-5F7C53D2F379}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7162800"/>
-          <a:ext cx="10259857" cy="1486107"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0103887D-7053-B00C-84E8-96E3DF98B63A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="7162800"/>
-          <a:ext cx="5057775" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>公式のホームページはこちら</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>URL</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25479542-37EF-45B5-CA84-8BFCDEEC31CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2190750" y="171450"/>
-          <a:ext cx="1095375" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ホーム太字</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688F371F-3CC3-3BAB-61EA-33BE2192DFA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38101" y="1619251"/>
-          <a:ext cx="2228850" cy="619124"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>〇解決済みのみ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>〇期間：（選択）～（選択）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104885</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38176</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A203C7-D2C7-FA5E-B040-96F4FB5A4CB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1162050"/>
-          <a:ext cx="790685" cy="543001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87A88BE-FDA4-4F12-B98F-4B02DEDB0742}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2924176" y="2124076"/>
-          <a:ext cx="2228850" cy="371474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>以降のときは前へも表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BA3D1E-05A5-4DB9-91C9-8650E663A07E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7153275" y="2247900"/>
-          <a:ext cx="6858000" cy="1828800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>該当する</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Q&amp;A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>はありませんでした。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3166,7 +3525,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3576,7 +3935,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5159,7 +5518,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5705,7 +6064,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5831,7 +6190,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6193,7 +6552,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6305,309 +6664,6 @@
             <a:t>変更が完了しました</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>401446</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>124367</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B7BE34-6B7E-F0F3-C314-D7250DE48E3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="47625"/>
-          <a:ext cx="10002646" cy="3886742"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>202450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837145EC-11A4-44E6-9B31-53B5BB3D17B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="123825" y="1323975"/>
-          <a:ext cx="6657975" cy="4355350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E8F199-832B-424C-9806-1A0992F26160}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="1971675"/>
-          <a:ext cx="1943100" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新しいユーザ名</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42CE4FCB-8758-4ECF-AEF2-C1296F2387E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="4686300"/>
-          <a:ext cx="1733550" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>変更（緑ボタン）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78746FB-ECE4-4925-B95A-1D3E365925DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="504825" y="2790825"/>
-          <a:ext cx="1943100" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新しいパスワード</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6879,10 +6935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A4"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6902,9 +6958,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7024,7 +7091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAE6D2E-098B-4431-A094-1F1AD784421C}">
   <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/design/ScreenLayout.xlsx
+++ b/design/ScreenLayout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaito\Desktop\website\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2D72C9-E83A-4A19-80CA-F0528BA3AA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F09FD1-3913-4D42-A330-12B4CF69B374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="0" windowWidth="18465" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>対応ブラウザ：safari</t>
     <rPh sb="0" eb="2">
@@ -702,6 +702,10 @@
   </si>
   <si>
     <t>https://japanism.info/free-template140-149.html</t>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6937,7 +6941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -7089,40 +7093,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAE6D2E-098B-4431-A094-1F1AD784421C}">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>55</v>
       </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
